--- a/medicine/Enfance/Hélène_Bruller/Hélène_Bruller.xlsx
+++ b/medicine/Enfance/Hélène_Bruller/Hélène_Bruller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Bruller</t>
+          <t>Hélène_Bruller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Bruller est une illustratrice, auteure de bande dessinée et scénariste française, née le 22 juillet 1968 à Boulogne-Billancourt (Hauts-de-Seine)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Bruller est une illustratrice, auteure de bande dessinée et scénariste française, née le 22 juillet 1968 à Boulogne-Billancourt (Hauts-de-Seine).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Bruller</t>
+          <t>Hélène_Bruller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Bruller fait ses études à l'École nationale supérieure des arts décoratifs à Paris[2], puis commence une carrière de graphiste et d'illustratrice pour la jeunesse[3]. Après des difficultés pour intégrer le milieu de la bande dessinée[2], elle publie à partir de 2001, scénarisant Le Guide du zizi sexuel, hors-série de Titeuf, dessiné par Zep, album didactique et humoristique sur la sexualité, destiné aux pré-adolescents.
-Elle est auteure complète des bandes dessinées Les Autres Filles[4] (2002), Je veux le prince charmant[5] (2004-2005), Love (2009), Faut qu'on parle[6],[7] (2011), Starfuckeuse (2014), J'veux pas vieillir[8] (2017). Hélène Bruller est une vraie salope, album partiellement autobiographique[9] qui narre « ses déboires sentimentaux de sa jeunesse », reçoit un accueil critique favorable dans Aujourd'hui en France[2]. Le même périodique réserve un accueil positif à Starfuckeuse, fiction humoristique mettant en scène ses aventures intimes avec des stars[10].
-Directrice artistique pour Hachette[2], elle fonde le label d'édition PoP!, spécialisé dans l'adaptation de bandes dessinées en romans pour la jeunesse (série Marie-Lune, adaptations de Titeuf, dont elle est l'auteur sous le pseudonyme de Shirley Anguerrand, etc.).
-Également écrivain, elle scénarise le Guide du Supermoi (2015), sur un dessin de Charles Berberian[11] ; elle crée la série Les Minijusticiers, dessinée par Zep et, coécrite avec Tébo, la série les Psicopattes.
-Elle scénarise Tout ira bien ma chérie, avec un dessin de Jaypee, publié en 2018[12].
-Vie personnelle
-Hélène Bruller est la petite-fille de l'écrivain Jean Bruller, plus connu sous son nom de plume de Vercors[2]. Après avoir vécu à Genève, elle s'installe à Paris. Elle a deux enfants, dont le père est Zep[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Bruller fait ses études à l'École nationale supérieure des arts décoratifs à Paris, puis commence une carrière de graphiste et d'illustratrice pour la jeunesse. Après des difficultés pour intégrer le milieu de la bande dessinée, elle publie à partir de 2001, scénarisant Le Guide du zizi sexuel, hors-série de Titeuf, dessiné par Zep, album didactique et humoristique sur la sexualité, destiné aux pré-adolescents.
+Elle est auteure complète des bandes dessinées Les Autres Filles (2002), Je veux le prince charmant (2004-2005), Love (2009), Faut qu'on parle, (2011), Starfuckeuse (2014), J'veux pas vieillir (2017). Hélène Bruller est une vraie salope, album partiellement autobiographique qui narre « ses déboires sentimentaux de sa jeunesse », reçoit un accueil critique favorable dans Aujourd'hui en France. Le même périodique réserve un accueil positif à Starfuckeuse, fiction humoristique mettant en scène ses aventures intimes avec des stars.
+Directrice artistique pour Hachette, elle fonde le label d'édition PoP!, spécialisé dans l'adaptation de bandes dessinées en romans pour la jeunesse (série Marie-Lune, adaptations de Titeuf, dont elle est l'auteur sous le pseudonyme de Shirley Anguerrand, etc.).
+Également écrivain, elle scénarise le Guide du Supermoi (2015), sur un dessin de Charles Berberian ; elle crée la série Les Minijusticiers, dessinée par Zep et, coécrite avec Tébo, la série les Psicopattes.
+Elle scénarise Tout ira bien ma chérie, avec un dessin de Jaypee, publié en 2018.
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Bruller</t>
+          <t>Hélène_Bruller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Bruller est la petite-fille de l'écrivain Jean Bruller, plus connu sous son nom de plume de Vercors. Après avoir vécu à Genève, elle s'installe à Paris. Elle a deux enfants, dont le père est Zep.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hélène_Bruller</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9l%C3%A8ne_Bruller</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Guide du zizi sexuel, dessins de Zep, Glénat, 2001.
 Les Autres Filles, Hachette Littérature, 2002.
@@ -567,44 +618,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%A9l%C3%A8ne_Bruller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9l%C3%A8ne_Bruller</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Télévision</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les Minijusticiers
-Toc Toc ![14]</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Bruller</t>
+          <t>Hélène_Bruller</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,12 +639,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Minijusticiers
+Toc Toc !</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hélène_Bruller</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9l%C3%A8ne_Bruller</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sélection du prix Artémisia 2016[15] pour Larguées, avec Véronique Grisseaux et Sophie Chédru.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sélection du prix Artémisia 2016 pour Larguées, avec Véronique Grisseaux et Sophie Chédru.</t>
         </is>
       </c>
     </row>
